--- a/Base de données/PAYS_PAYS.xlsx
+++ b/Base de données/PAYS_PAYS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,30 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>idPAYS_PAYS</t>
+  </si>
+  <si>
+    <t>PAYS1</t>
+  </si>
+  <si>
+    <t>PAYS2</t>
+  </si>
+  <si>
+    <t>occurrences_PAYS_PAYS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,11 +71,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,36 +365,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Base de données/PAYS_PAYS.xlsx
+++ b/Base de données/PAYS_PAYS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="34">
   <si>
     <t>idPAYS_PAYS</t>
   </si>
@@ -28,6 +28,96 @@
   </si>
   <si>
     <t>occurrences_PAYS_PAYS</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>austral</t>
+  </si>
+  <si>
+    <t>netherl</t>
+  </si>
+  <si>
+    <t>norway</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t>spain</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>denmark</t>
+  </si>
+  <si>
+    <t>belgium</t>
+  </si>
+  <si>
+    <t>ireland</t>
+  </si>
+  <si>
+    <t>new-zea</t>
+  </si>
+  <si>
+    <t>switzer</t>
+  </si>
+  <si>
+    <t>sweden</t>
+  </si>
+  <si>
+    <t>italy</t>
+  </si>
+  <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>austria</t>
+  </si>
+  <si>
+    <t>poland</t>
+  </si>
+  <si>
+    <t>croatia</t>
+  </si>
+  <si>
+    <t>japan</t>
+  </si>
+  <si>
+    <t>russia</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>hungary</t>
+  </si>
+  <si>
+    <t>israel</t>
+  </si>
+  <si>
+    <t>iran</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>colombi</t>
+  </si>
+  <si>
+    <t>greece</t>
+  </si>
+  <si>
+    <t>singapo</t>
   </si>
 </sst>
 </file>
@@ -366,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,6 +476,1070 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Base de données/PAYS_PAYS.xlsx
+++ b/Base de données/PAYS_PAYS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t>idPAYS_PAYS</t>
   </si>
@@ -30,94 +30,97 @@
     <t>occurrences_PAYS_PAYS</t>
   </si>
   <si>
-    <t>usa</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>france</t>
-  </si>
-  <si>
-    <t>austral</t>
-  </si>
-  <si>
-    <t>netherl</t>
-  </si>
-  <si>
-    <t>norway</t>
-  </si>
-  <si>
-    <t>germany</t>
-  </si>
-  <si>
-    <t>spain</t>
-  </si>
-  <si>
-    <t>canada</t>
-  </si>
-  <si>
-    <t>denmark</t>
-  </si>
-  <si>
-    <t>belgium</t>
-  </si>
-  <si>
-    <t>ireland</t>
-  </si>
-  <si>
-    <t>new-zea</t>
-  </si>
-  <si>
-    <t>switzer</t>
-  </si>
-  <si>
-    <t>sweden</t>
-  </si>
-  <si>
-    <t>italy</t>
-  </si>
-  <si>
-    <t>turkey</t>
-  </si>
-  <si>
-    <t>austria</t>
-  </si>
-  <si>
-    <t>poland</t>
-  </si>
-  <si>
-    <t>croatia</t>
-  </si>
-  <si>
-    <t>japan</t>
-  </si>
-  <si>
-    <t>russia</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>hungary</t>
-  </si>
-  <si>
-    <t>israel</t>
-  </si>
-  <si>
-    <t>iran</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>colombi</t>
-  </si>
-  <si>
-    <t>greece</t>
-  </si>
-  <si>
-    <t>singapo</t>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>NEW-ZEALAND</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>DENMARK</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>POLAND</t>
+  </si>
+  <si>
+    <t>CROATIA</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>RUSSIA</t>
+  </si>
+  <si>
+    <t>NORWAY</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>IRELAND</t>
+  </si>
+  <si>
+    <t>HUNGARY</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>IRAN</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
+  </si>
+  <si>
+    <t>GREECE</t>
+  </si>
+  <si>
+    <t>SINGAPORE</t>
+  </si>
+  <si>
+    <t>CZECHOSLOVAKIA</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A77"/>
+      <selection activeCell="A56" sqref="A56:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,13 +500,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -511,13 +514,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
         <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,13 +528,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,10 +542,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -553,13 +556,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,13 +570,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,13 +598,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -609,13 +612,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,13 +626,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>263</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,13 +640,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,13 +654,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,13 +668,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,10 +682,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -693,13 +696,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,13 +710,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,13 +724,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,13 +738,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,13 +752,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,13 +766,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,10 +780,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -791,13 +794,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,10 +808,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -819,10 +822,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
         <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -833,10 +836,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -847,13 +850,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -861,13 +864,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -878,10 +881,10 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,13 +892,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,13 +906,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -917,13 +920,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,13 +934,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -945,13 +948,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -959,13 +962,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,13 +976,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,13 +990,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38">
         <v>6</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1001,13 +1004,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,13 +1018,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,13 +1032,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,13 +1046,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,7 +1060,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -1071,13 +1074,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1085,13 +1088,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,10 +1102,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1113,13 +1116,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,13 +1130,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,13 +1144,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,13 +1158,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,13 +1172,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,13 +1186,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,13 +1200,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,13 +1214,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1225,321 +1228,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D55">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
